--- a/02-09-25 to 02-15-25 Madison Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Madison Schedule.xlsx
@@ -1737,7 +1737,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -2464,10 +2464,14 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>

--- a/02-09-25 to 02-15-25 Madison Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Madison Schedule.xlsx
@@ -1132,16 +1132,8 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -1310,7 +1302,7 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>10:00 AM START</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1357,7 +1349,7 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1404,7 +1396,8 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>KELLEY #82, STATE ST MOBIL, BELVIDERE</t>
+          <t>HOUSE OF BOTTLES, 
+LOVES PARK</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1451,7 +1444,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>1901 N STATE ST</t>
+          <t>5619 N 2ND ST</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1494,7 +1487,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/4TPgfMygjsLQ8pYB9</t>
+          <t>https://maps.app.goo.gl/q2JDZ7qEYo5mU6DA6</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1596,7 +1589,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1656,7 +1649,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1730,16 +1723,8 @@
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
@@ -1797,16 +1782,8 @@
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
@@ -1868,14 +1845,10 @@
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -1940,14 +1913,10 @@
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2012,14 +1981,10 @@
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>KELLEY #82, STATE ST MOBIL, BELVIDERE</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2083,14 +2048,10 @@
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>1901 N STATE ST</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2118,14 +2079,10 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>https://goo.gl/maps/4TPgfMygjsLQ8pYB9</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2192,9 +2149,21 @@
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
@@ -2231,8 +2200,16 @@
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
@@ -2266,8 +2243,16 @@
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
@@ -2301,8 +2286,16 @@
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2336,8 +2329,16 @@
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2367,8 +2368,16 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2406,8 +2415,16 @@
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
@@ -2453,8 +2470,16 @@
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
@@ -2500,8 +2525,16 @@
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">

--- a/02-09-25 to 02-15-25 Madison Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Madison Schedule.xlsx
@@ -974,7 +974,11 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>5:00 am meet for Sarah &amp; Aivy at Wayside Park</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
@@ -1048,21 +1052,9 @@
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
@@ -1129,11 +1121,19 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -1172,17 +1172,17 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1221,9 +1221,21 @@
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
@@ -1300,11 +1312,7 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>10:00 AM START</t>
-        </is>
-      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
@@ -1349,7 +1357,7 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>10:00 AM START</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1396,8 +1404,7 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>HOUSE OF BOTTLES, 
-LOVES PARK</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1444,7 +1451,8 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>5619 N 2ND ST</t>
+          <t>HOUSE OF BOTTLES, 
+LOVES PARK</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1487,7 +1495,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/q2JDZ7qEYo5mU6DA6</t>
+          <t>5619 N 2ND ST</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1540,7 +1548,11 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/q2JDZ7qEYo5mU6DA6</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
@@ -1582,21 +1594,9 @@
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -1644,15 +1644,19 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -1723,8 +1727,16 @@
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
@@ -1846,11 +1858,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
@@ -1916,7 +1924,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -1984,7 +1992,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>KELLEY #82, STATE ST MOBIL, BELVIDERE</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2051,7 +2059,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>1901 N STATE ST</t>
+          <t>KELLEY #82, STATE ST MOBIL, BELVIDERE</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2082,7 +2090,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/4TPgfMygjsLQ8pYB9</t>
+          <t>1901 N STATE ST</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2111,7 +2119,11 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/4TPgfMygjsLQ8pYB9</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2149,21 +2161,9 @@
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
@@ -2202,15 +2202,19 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
@@ -2245,12 +2249,12 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2288,12 +2292,12 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2331,12 +2335,12 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2370,12 +2374,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2417,12 +2421,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2472,12 +2476,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2527,12 +2531,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2581,8 +2585,16 @@
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">

--- a/02-09-25 to 02-15-25 Madison Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Madison Schedule.xlsx
@@ -2297,7 +2297,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2636,8 +2636,16 @@
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">

--- a/02-09-25 to 02-15-25 Madison Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1916,10 +1916,15 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -1979,13 +1984,12 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Driver,
-Corolla</t>
+          <t>w/ Qiana</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
@@ -2040,21 +2044,9 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>w/ Qiana</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -2115,7 +2107,11 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2156,7 +2152,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2195,7 +2191,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #52, JEFFERSON ST MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2242,7 +2238,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>KELLEY #52, JEFFERSON ST MOBIL, ROCKFORD</t>
+          <t>515 E JEFFERSON ST</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2285,7 +2281,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>515 E JEFFERSON ST</t>
+          <t>https://goo.gl/maps/HwMixMJfHf32</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2326,11 +2322,7 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/HwMixMJfHf32</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
@@ -2368,9 +2360,21 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2405,19 +2409,15 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2464,12 +2464,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2519,12 +2519,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2575,12 +2575,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2626,12 +2626,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2681,12 +2681,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2716,12 +2716,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -2749,16 +2749,8 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
@@ -2812,7 +2804,11 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2:30 PM START</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -2841,7 +2837,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2:30 PM START</t>
+          <t>PAID SUPV MEETING</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -2872,7 +2868,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>PAID SUPV MEETING</t>
+          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -2903,7 +2899,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
+          <t>Please have your camera on for this meeting</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -2934,7 +2930,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Please have your camera on for this meeting</t>
+          <t>Please click on the link below to join this meeting</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -2965,7 +2961,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Please click on the link below to join this meeting</t>
+          <t>https://meet.google.com/xxt-vyje-rvo</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -2994,11 +2990,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>https://meet.google.com/xxt-vyje-rvo</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3024,8 +3016,16 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -3053,12 +3053,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3088,12 +3088,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3123,12 +3123,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3158,12 +3158,12 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3193,12 +3193,12 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jake S</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3228,12 +3228,12 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3263,12 +3263,12 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3298,12 +3298,12 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3333,12 +3333,12 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3368,12 +3368,12 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3403,12 +3403,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3438,12 +3438,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -3473,12 +3473,12 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -3508,12 +3508,12 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Palmer</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -3543,12 +3543,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Palmer</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -3578,12 +3578,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -3598,41 +3598,6 @@
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02-09-25 to 02-15-25 Madison Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Madison Schedule.xlsx
@@ -1177,12 +1177,12 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1357,7 +1357,7 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>10:00 AM START</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1404,7 +1404,7 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1451,8 +1451,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>HOUSE OF BOTTLES, 
-LOVES PARK</t>
+          <t>KELLEY #82, STATE ST MOBIL, BELVIDERE</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1495,7 +1494,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>5619 N 2ND ST</t>
+          <t>1901 N STATE ST</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1550,7 +1549,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/q2JDZ7qEYo5mU6DA6</t>
+          <t>https://goo.gl/maps/4TPgfMygjsLQ8pYB9</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1649,7 +1648,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -1734,7 +1733,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1794,8 +1793,16 @@
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
@@ -1857,8 +1864,16 @@
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
@@ -1926,10 +1941,14 @@
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -1993,10 +2012,14 @@
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2048,10 +2071,14 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>KELLEY #82, STATE ST MOBIL, BELVIDERE</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2079,10 +2106,14 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>1901 N STATE ST</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2114,10 +2145,14 @@
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/4TPgfMygjsLQ8pYB9</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2157,8 +2192,16 @@
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
@@ -2196,21 +2239,9 @@
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
@@ -2243,16 +2274,8 @@
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
@@ -2286,16 +2309,8 @@
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2325,16 +2340,8 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2376,16 +2383,8 @@
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2419,16 +2418,8 @@
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
@@ -2474,16 +2465,8 @@
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
@@ -2529,16 +2512,8 @@
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
@@ -2585,16 +2560,8 @@
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
@@ -2636,16 +2603,8 @@
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">

--- a/02-09-25 to 02-15-25 Madison Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Madison Schedule.xlsx
@@ -974,11 +974,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>5:00 am meet for Sarah &amp; Aivy at Wayside Park</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
@@ -1052,9 +1048,21 @@
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
@@ -1121,17 +1129,17 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
@@ -1172,12 +1180,12 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1221,21 +1229,9 @@
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
@@ -1312,7 +1308,11 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
@@ -1357,7 +1357,7 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1404,7 +1404,7 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #82, STATE ST MOBIL, BELVIDERE</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1451,7 +1451,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>KELLEY #82, STATE ST MOBIL, BELVIDERE</t>
+          <t>1901 N STATE ST</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1494,7 +1494,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>1901 N STATE ST</t>
+          <t>https://goo.gl/maps/4TPgfMygjsLQ8pYB9</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1547,11 +1547,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/4TPgfMygjsLQ8pYB9</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
@@ -1593,9 +1589,21 @@
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -1643,19 +1651,15 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -1728,12 +1732,12 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1795,12 +1799,12 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -1866,12 +1870,12 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -1943,12 +1947,12 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2014,12 +2018,12 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2073,12 +2077,12 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2108,12 +2112,12 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2147,12 +2151,12 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2192,16 +2196,8 @@
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>

--- a/02-09-25 to 02-15-25 Madison Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Madison Schedule.xlsx
@@ -1502,7 +1502,7 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>5:45 am meet for Sarah &amp; Aivy at Wayside Park, then meet Lori</t>
+          <t>5:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>6:15 at Hwy N</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>

--- a/02-09-25 to 02-15-25 Madison Schedule.xlsx
+++ b/02-09-25 to 02-15-25 Madison Schedule.xlsx
@@ -1752,7 +1752,12 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -1892,8 +1897,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>Driver,
-Corolla</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
